--- a/data/Nicotinic Acid Summary.xlsx
+++ b/data/Nicotinic Acid Summary.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\lab\CHEMISTRY\Instrumental Chemistry\Chromatography 3\Validation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-30640" yWindow="-1240" windowWidth="28800" windowHeight="12380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tidier" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>HPLC</t>
   </si>
@@ -72,13 +71,31 @@
   </si>
   <si>
     <t xml:space="preserve">In VITB01-17-0004,0005 and 0006, TCA concentration in standard and blank is 40% (same with the samples). </t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +119,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,46 +154,46 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -168,10 +201,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -179,10 +212,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -190,77 +223,77 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -269,7 +302,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -277,40 +310,44 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -376,7 +413,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,7 +511,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,25 +696,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20">
+        <v>9297682</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>5.92</v>
+      </c>
+      <c r="E2" s="22">
+        <v>5.82</v>
+      </c>
+      <c r="F2" s="21">
+        <v>5.68</v>
+      </c>
+      <c r="G2" s="22">
+        <v>5.92</v>
+      </c>
+      <c r="H2" s="23">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20">
+        <v>9297682</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.79</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5.89</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5.82</v>
+      </c>
+      <c r="G3" s="11">
+        <v>6.11</v>
+      </c>
+      <c r="H3" s="8">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20">
+        <v>9297682</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.76</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5.84</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5.69</v>
+      </c>
+      <c r="G4" s="11">
+        <v>6.12</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>9249418</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="E5" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3.85</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>9249418</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3.83</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.84</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3.86</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1">
+      <c r="A7" s="6">
+        <v>9249418</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>3.86</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3.85</v>
+      </c>
+      <c r="F7" s="13">
+        <v>3.77</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3.88</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1"/>
+    <row r="13" spans="1:8" ht="15" thickBot="1">
+      <c r="A13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="20">
+        <v>9297682</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="21">
+        <v>5.89</v>
+      </c>
+      <c r="E14" s="22">
+        <v>6.07</v>
+      </c>
+      <c r="F14" s="21">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="20">
+        <v>9297682</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="E15" s="11">
+        <v>6.09</v>
+      </c>
+      <c r="F15" s="8">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20">
+        <v>9297682</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <v>5.97</v>
+      </c>
+      <c r="E16" s="11">
+        <v>6.17</v>
+      </c>
+      <c r="F16" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <v>9249418</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3.96</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
+        <v>9249418</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3.99</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1">
+      <c r="A19" s="6">
+        <v>9249418</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F19" s="13">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="10" max="15" width="14.140625" customWidth="1"/>
+    <col min="2" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="10" max="15" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="19" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +1095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>5</v>
@@ -715,7 +1129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="20">
         <v>9297682</v>
       </c>
@@ -759,7 +1173,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -802,7 +1216,7 @@
         <v>3.7466666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -822,7 +1236,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="6">
         <v>9249418</v>
       </c>
@@ -842,7 +1256,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -862,7 +1276,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
@@ -882,7 +1296,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -890,7 +1304,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -898,7 +1312,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -906,7 +1320,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="19" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -914,7 +1328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1">
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
         <v>7</v>
@@ -936,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="D18" s="20">
         <v>9297682</v>
       </c>
@@ -965,7 +1379,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1">
       <c r="D19" s="6" t="s">
         <v>4</v>
       </c>
@@ -994,7 +1408,7 @@
         <v>4.3766666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1422,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="D21" s="6">
         <v>9249418</v>
       </c>
@@ -1022,7 +1436,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1450,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" thickBot="1">
       <c r="D23" s="7" t="s">
         <v>2</v>
       </c>
@@ -1050,23 +1464,28 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/Nicotinic Acid Summary.xlsx
+++ b/data/Nicotinic Acid Summary.xlsx
@@ -144,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -337,6 +337,21 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -349,7 +364,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +427,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -699,7 +724,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -709,185 +734,185 @@
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20">
+      <c r="A2" s="29">
         <v>9297682</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="30">
         <v>5.92</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="30">
         <v>5.82</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="30">
         <v>5.68</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="30">
         <v>5.92</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="31">
         <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="20">
+      <c r="A3" s="29">
         <v>9297682</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="30">
         <v>5.79</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="30">
         <v>5.89</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="30">
         <v>5.82</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="30">
         <v>6.11</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="30">
         <v>5.69</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="20">
+      <c r="A4" s="29">
         <v>9297682</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="30">
         <v>5.76</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="30">
         <v>5.84</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="30">
         <v>5.69</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="30">
         <v>6.12</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="31">
         <v>5.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="29">
         <v>9249418</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="30">
         <v>3.89</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="31">
         <v>3.9</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="30">
         <v>3.86</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="30">
         <v>3.85</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="30">
         <v>3.46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="29">
         <v>9249418</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="31">
         <v>3.9</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="30">
         <v>3.83</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="30">
         <v>3.84</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="30">
         <v>3.86</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="30">
         <v>4.07</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1">
-      <c r="A7" s="6">
+    <row r="7" spans="1:8">
+      <c r="A7" s="29">
         <v>9249418</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="30">
         <v>3.86</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="30">
         <v>3.85</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="30">
         <v>3.77</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="30">
         <v>3.88</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="30">
         <v>3.71</v>
       </c>
     </row>
@@ -915,144 +940,143 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1"/>
-    <row r="13" spans="1:8" ht="15" thickBot="1">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20">
+      <c r="A14" s="29">
         <v>9297682</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="30">
         <v>5.89</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="30">
         <v>6.07</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="30">
         <v>6.79</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20">
+      <c r="A15" s="29">
         <v>9297682</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="30">
         <v>6.05</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="30">
         <v>6.09</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="30">
         <v>6.65</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="20">
+      <c r="A16" s="29">
         <v>9297682</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="30">
         <v>5.97</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="30">
         <v>6.17</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="31">
         <v>6.6</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6">
+      <c r="A17" s="29">
         <v>9249418</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="30">
         <v>3.99</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="30">
         <v>3.96</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="30">
         <v>4.41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6">
+      <c r="A18" s="29">
         <v>9249418</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="31">
         <v>4</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="30">
         <v>3.99</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="30">
         <v>4.37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1">
-      <c r="A19" s="6">
+    <row r="19" spans="1:6">
+      <c r="A19" s="29">
         <v>9249418</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="31">
         <v>4</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="30">
         <v>4.1100000000000003</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="30">
         <v>4.3499999999999996</v>
       </c>
     </row>
